--- a/results/mp/tinybert/corona/confidence/210/stop-words-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,9 +43,6 @@
     <t>crude</t>
   </si>
   <si>
-    <t>fraud</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
@@ -55,91 +52,97 @@
     <t>sc</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>love</t>
   </si>
   <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>safe</t>
   </si>
   <si>
     <t>positive</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
     <t>support</t>
   </si>
   <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>free</t>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>safety</t>
+    <t>like</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
     <t>please</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>co</t>
   </si>
 </sst>
 </file>
@@ -497,7 +500,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,10 +508,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -566,13 +569,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.84</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="C3">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -584,19 +587,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K3">
-        <v>0.9583333333333334</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M3">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -616,37 +619,37 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8235294117647058</v>
+        <v>0.6027397260273972</v>
       </c>
       <c r="C4">
+        <v>176</v>
+      </c>
+      <c r="D4">
+        <v>176</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>116</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D4">
-        <v>14</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="K4">
-        <v>0.9444444444444444</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -658,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -666,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7077922077922078</v>
+        <v>0.1918604651162791</v>
       </c>
       <c r="C5">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D5">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -684,19 +687,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>45</v>
+        <v>417</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K5">
-        <v>0.9375</v>
+        <v>0.8913043478260869</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="M5">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -708,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -716,13 +719,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.3562231759656652</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="C6">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -734,169 +737,97 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0.8787878787878788</v>
+      </c>
+      <c r="L6">
+        <v>29</v>
+      </c>
+      <c r="M6">
+        <v>29</v>
+      </c>
+      <c r="N6">
+        <v>1</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="J7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7">
+        <v>0.8660714285714286</v>
+      </c>
+      <c r="L7">
+        <v>97</v>
+      </c>
+      <c r="M7">
+        <v>97</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="J8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>0.8536585365853658</v>
+      </c>
+      <c r="L8">
+        <v>70</v>
+      </c>
+      <c r="M8">
+        <v>70</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="J9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="K6">
-        <v>0.875</v>
-      </c>
-      <c r="L6">
-        <v>14</v>
-      </c>
-      <c r="M6">
-        <v>14</v>
-      </c>
-      <c r="N6">
-        <v>1</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7">
-        <v>0.2558139534883721</v>
-      </c>
-      <c r="C7">
-        <v>22</v>
-      </c>
-      <c r="D7">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>64</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K7">
-        <v>0.8518518518518519</v>
-      </c>
-      <c r="L7">
-        <v>23</v>
-      </c>
-      <c r="M7">
-        <v>23</v>
-      </c>
-      <c r="N7">
-        <v>1</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8">
-        <v>0.2</v>
-      </c>
-      <c r="C8">
-        <v>16</v>
-      </c>
-      <c r="D8">
-        <v>16</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>64</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8">
-        <v>0.85</v>
-      </c>
-      <c r="L8">
-        <v>34</v>
-      </c>
-      <c r="M8">
-        <v>34</v>
-      </c>
-      <c r="N8">
-        <v>1</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9">
-        <v>0.1363636363636364</v>
-      </c>
-      <c r="C9">
-        <v>15</v>
-      </c>
-      <c r="D9">
-        <v>15</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>95</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="K9">
-        <v>0.8431372549019608</v>
+        <v>0.796875</v>
       </c>
       <c r="L9">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="M9">
-        <v>43</v>
+        <v>102</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -908,21 +839,21 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>8</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K10">
-        <v>0.8431372549019608</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L10">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="M10">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -939,16 +870,16 @@
     </row>
     <row r="11" spans="1:17">
       <c r="J11" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L11">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="M11">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -960,21 +891,21 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="J12" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K12">
-        <v>0.8103448275862069</v>
+        <v>0.7647058823529411</v>
       </c>
       <c r="L12">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="M12">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -986,21 +917,21 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="J13" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="K13">
-        <v>0.8035714285714286</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L13">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="M13">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1012,21 +943,21 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>11</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:17">
       <c r="J14" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7083333333333334</v>
+        <v>0.7413793103448276</v>
       </c>
       <c r="L14">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="M14">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1038,47 +969,47 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="J15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15">
+        <v>0.7358490566037735</v>
+      </c>
+      <c r="L15">
+        <v>78</v>
+      </c>
+      <c r="M15">
+        <v>78</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q15">
         <v>28</v>
-      </c>
-      <c r="K15">
-        <v>0.6923076923076923</v>
-      </c>
-      <c r="L15">
-        <v>18</v>
-      </c>
-      <c r="M15">
-        <v>18</v>
-      </c>
-      <c r="N15">
-        <v>1</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="J16" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="K16">
-        <v>0.68</v>
+        <v>0.71875</v>
       </c>
       <c r="L16">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="M16">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1090,21 +1021,21 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="10:17">
       <c r="J17" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6712328767123288</v>
+        <v>0.6944444444444444</v>
       </c>
       <c r="L17">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="M17">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1116,47 +1047,47 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="10:17">
       <c r="J18" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="K18">
-        <v>0.6666666666666666</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L18">
+        <v>41</v>
+      </c>
+      <c r="M18">
+        <v>41</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q18">
         <v>22</v>
-      </c>
-      <c r="M18">
-        <v>22</v>
-      </c>
-      <c r="N18">
-        <v>1</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>11</v>
       </c>
     </row>
     <row r="19" spans="10:17">
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6410256410256411</v>
+        <v>0.6276595744680851</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1168,21 +1099,21 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="10:17">
       <c r="J20" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="K20">
-        <v>0.64</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L20">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="M20">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1194,21 +1125,21 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="10:17">
       <c r="J21" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K21">
-        <v>0.6056338028169014</v>
+        <v>0.6</v>
       </c>
       <c r="L21">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="M21">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1220,21 +1151,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>84</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="10:17">
       <c r="J22" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5862068965517241</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L22">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="M22">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1246,21 +1177,21 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="10:17">
       <c r="J23" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5333333333333333</v>
+        <v>0.5221932114882507</v>
       </c>
       <c r="L23">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="M23">
-        <v>16</v>
+        <v>200</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1272,21 +1203,21 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>14</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="10:17">
       <c r="J24" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K24">
-        <v>0.5116279069767442</v>
+        <v>0.4764705882352941</v>
       </c>
       <c r="L24">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="M24">
-        <v>66</v>
+        <v>162</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1298,21 +1229,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>63</v>
+        <v>178</v>
       </c>
     </row>
     <row r="25" spans="10:17">
       <c r="J25" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="K25">
-        <v>0.5</v>
+        <v>0.4520547945205479</v>
       </c>
       <c r="L25">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="M25">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1324,21 +1255,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>14</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="10:17">
       <c r="J26" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26">
+        <v>0.4382022471910113</v>
+      </c>
+      <c r="L26">
         <v>39</v>
       </c>
-      <c r="K26">
-        <v>0.4930555555555556</v>
-      </c>
-      <c r="L26">
-        <v>71</v>
-      </c>
       <c r="M26">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1350,21 +1281,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>73</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="10:17">
       <c r="J27" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K27">
-        <v>0.4857142857142857</v>
+        <v>0.4153846153846154</v>
       </c>
       <c r="L27">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="M27">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1376,33 +1307,137 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>18</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="10:17">
       <c r="J28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K28">
+        <v>0.4135593220338983</v>
+      </c>
+      <c r="L28">
+        <v>122</v>
+      </c>
+      <c r="M28">
+        <v>122</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="10:17">
+      <c r="J29" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29">
+        <v>0.3640167364016736</v>
+      </c>
+      <c r="L29">
+        <v>87</v>
+      </c>
+      <c r="M29">
+        <v>87</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="10:17">
+      <c r="J30" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K30">
+        <v>0.3461538461538461</v>
+      </c>
+      <c r="L30">
+        <v>27</v>
+      </c>
+      <c r="M30">
+        <v>27</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="10:17">
+      <c r="J31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K28">
-        <v>0.4347826086956522</v>
-      </c>
-      <c r="L28">
-        <v>40</v>
-      </c>
-      <c r="M28">
-        <v>40</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>52</v>
+      <c r="K31">
+        <v>0.01493930905695612</v>
+      </c>
+      <c r="L31">
+        <v>32</v>
+      </c>
+      <c r="M31">
+        <v>33</v>
+      </c>
+      <c r="N31">
+        <v>0.97</v>
+      </c>
+      <c r="O31">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q31">
+        <v>2110</v>
+      </c>
+    </row>
+    <row r="32" spans="10:17">
+      <c r="J32" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32">
+        <v>0.009664948453608248</v>
+      </c>
+      <c r="L32">
+        <v>30</v>
+      </c>
+      <c r="M32">
+        <v>33</v>
+      </c>
+      <c r="N32">
+        <v>0.91</v>
+      </c>
+      <c r="O32">
+        <v>0.08999999999999997</v>
+      </c>
+      <c r="P32" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q32">
+        <v>3074</v>
       </c>
     </row>
   </sheetData>

--- a/results/mp/tinybert/corona/confidence/210/stop-words-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/210/stop-words-0.2/avg_0.004_scores.xlsx
@@ -58,12 +58,12 @@
     <t>happy</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>best</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>interesting</t>
   </si>
   <si>
@@ -79,58 +79,58 @@
     <t>special</t>
   </si>
   <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>safety</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
     <t>protect</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
   </si>
   <si>
     <t>please</t>
@@ -511,7 +511,7 @@
         <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -569,13 +569,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7647058823529411</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -587,7 +587,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
@@ -619,13 +619,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.6027397260273972</v>
+        <v>0.6267123287671232</v>
       </c>
       <c r="C4">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="D4">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -637,19 +637,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4">
-        <v>0.9322033898305084</v>
+        <v>0.9347826086956522</v>
       </c>
       <c r="L4">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="M4">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -669,13 +669,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.1918604651162791</v>
+        <v>0.1957364341085271</v>
       </c>
       <c r="C5">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D5">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -687,19 +687,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K5">
-        <v>0.8913043478260869</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L5">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="M5">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -719,13 +719,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1851851851851852</v>
+        <v>0.1798941798941799</v>
       </c>
       <c r="C6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -737,7 +737,7 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>16</v>
@@ -769,13 +769,13 @@
         <v>17</v>
       </c>
       <c r="K7">
-        <v>0.8660714285714286</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="L7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M7">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -795,13 +795,13 @@
         <v>18</v>
       </c>
       <c r="K8">
-        <v>0.8536585365853658</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="M8">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -821,13 +821,13 @@
         <v>19</v>
       </c>
       <c r="K9">
-        <v>0.796875</v>
+        <v>0.8125</v>
       </c>
       <c r="L9">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M9">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -839,7 +839,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -847,13 +847,13 @@
         <v>20</v>
       </c>
       <c r="K10">
-        <v>0.7777777777777778</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="L10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -873,13 +873,13 @@
         <v>21</v>
       </c>
       <c r="K11">
-        <v>0.7666666666666667</v>
+        <v>0.7676056338028169</v>
       </c>
       <c r="L11">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="M11">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -891,7 +891,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -899,13 +899,13 @@
         <v>22</v>
       </c>
       <c r="K12">
-        <v>0.7647058823529411</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="L12">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="M12">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -925,13 +925,13 @@
         <v>23</v>
       </c>
       <c r="K13">
-        <v>0.7535211267605634</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="L13">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="M13">
-        <v>107</v>
+        <v>44</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -951,13 +951,13 @@
         <v>24</v>
       </c>
       <c r="K14">
-        <v>0.7413793103448276</v>
+        <v>0.75</v>
       </c>
       <c r="L14">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M14">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -969,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -977,13 +977,13 @@
         <v>25</v>
       </c>
       <c r="K15">
-        <v>0.7358490566037735</v>
+        <v>0.71875</v>
       </c>
       <c r="L15">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="M15">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -995,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>28</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1003,13 +1003,13 @@
         <v>26</v>
       </c>
       <c r="K16">
-        <v>0.71875</v>
+        <v>0.7169811320754716</v>
       </c>
       <c r="L16">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="M16">
-        <v>115</v>
+        <v>76</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>45</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1029,13 +1029,13 @@
         <v>27</v>
       </c>
       <c r="K17">
-        <v>0.6944444444444444</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1081,13 +1081,13 @@
         <v>29</v>
       </c>
       <c r="K19">
-        <v>0.6276595744680851</v>
+        <v>0.6170212765957447</v>
       </c>
       <c r="L19">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M19">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1107,7 +1107,7 @@
         <v>30</v>
       </c>
       <c r="K20">
-        <v>0.6170212765957447</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="L20">
         <v>29</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1159,13 +1159,13 @@
         <v>32</v>
       </c>
       <c r="K22">
-        <v>0.5833333333333334</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="L22">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1185,13 +1185,13 @@
         <v>33</v>
       </c>
       <c r="K23">
-        <v>0.5221932114882507</v>
+        <v>0.5248041775456919</v>
       </c>
       <c r="L23">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M23">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1211,13 +1211,13 @@
         <v>34</v>
       </c>
       <c r="K24">
-        <v>0.4764705882352941</v>
+        <v>0.4606741573033708</v>
       </c>
       <c r="L24">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="M24">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1229,7 +1229,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>178</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1237,13 +1237,13 @@
         <v>35</v>
       </c>
       <c r="K25">
-        <v>0.4520547945205479</v>
+        <v>0.4588235294117647</v>
       </c>
       <c r="L25">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="M25">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1255,7 +1255,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>40</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1263,13 +1263,13 @@
         <v>36</v>
       </c>
       <c r="K26">
-        <v>0.4382022471910113</v>
+        <v>0.4307692307692308</v>
       </c>
       <c r="L26">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="M26">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1281,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1289,13 +1289,13 @@
         <v>37</v>
       </c>
       <c r="K27">
-        <v>0.4153846153846154</v>
+        <v>0.4169491525423729</v>
       </c>
       <c r="L27">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="M27">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>38</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1315,13 +1315,13 @@
         <v>38</v>
       </c>
       <c r="K28">
-        <v>0.4135593220338983</v>
+        <v>0.410958904109589</v>
       </c>
       <c r="L28">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="M28">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>173</v>
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1341,13 +1341,13 @@
         <v>39</v>
       </c>
       <c r="K29">
-        <v>0.3640167364016736</v>
+        <v>0.3765690376569037</v>
       </c>
       <c r="L29">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M29">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1367,13 +1367,13 @@
         <v>40</v>
       </c>
       <c r="K30">
-        <v>0.3461538461538461</v>
+        <v>0.3717948717948718</v>
       </c>
       <c r="L30">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M30">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1393,25 +1393,25 @@
         <v>41</v>
       </c>
       <c r="K31">
-        <v>0.01493930905695612</v>
+        <v>0.01449275362318841</v>
       </c>
       <c r="L31">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M31">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="N31">
-        <v>0.97</v>
+        <v>0.89</v>
       </c>
       <c r="O31">
-        <v>0.03000000000000003</v>
+        <v>0.11</v>
       </c>
       <c r="P31" t="b">
         <v>1</v>
       </c>
       <c r="Q31">
-        <v>2110</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1419,25 +1419,25 @@
         <v>42</v>
       </c>
       <c r="K32">
-        <v>0.009664948453608248</v>
+        <v>0.009011908593498551</v>
       </c>
       <c r="L32">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M32">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="N32">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="O32">
-        <v>0.08999999999999997</v>
+        <v>0</v>
       </c>
       <c r="P32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>3074</v>
+        <v>3079</v>
       </c>
     </row>
   </sheetData>
